--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 4/04-02-large-and-small-ex2021-adv.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 4/04-02-large-and-small-ex2021-adv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EE418CA-957B-4D9C-9328-E64B986AFDBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DEAED5-FE6B-4757-88BD-9AFD6B3A7D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{BDA65DB1-F32F-4C52-BA56-A310F08F54ED}"/>
+    <workbookView xWindow="7644" yWindow="2988" windowWidth="17280" windowHeight="8880" xr2:uid="{BDA65DB1-F32F-4C52-BA56-A310F08F54ED}"/>
   </bookViews>
   <sheets>
     <sheet name="LARGE AND SMALL" sheetId="1" r:id="rId1"/>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>Year</t>
   </si>
@@ -253,15 +275,29 @@
   </si>
   <si>
     <t>Lowest Sales in "Hip hop" Genre</t>
+  </si>
+  <si>
+    <t>maxif</t>
+  </si>
+  <si>
+    <t>large + if</t>
+  </si>
+  <si>
+    <t>minif</t>
+  </si>
+  <si>
+    <t>small + if</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -307,21 +343,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -635,27 +674,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45D0D401-1DCF-4345-8A4C-DF3D9886E532}">
-  <dimension ref="A3:J32"/>
+  <dimension ref="A3:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
     <col min="7" max="7" width="4" customWidth="1"/>
     <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -678,7 +717,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2019</v>
       </c>
@@ -698,10 +737,16 @@
       <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="4">
+        <f>LARGE($E$4:$E$32,G4)</f>
+        <v>4500000</v>
+      </c>
+      <c r="J4" s="2">
+        <f>SMALL($E$4:$E$32,G4)</f>
+        <v>367000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2019</v>
       </c>
@@ -721,10 +766,16 @@
       <c r="G5" s="5">
         <v>2</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="4">
+        <f t="shared" ref="H5:H8" si="0">LARGE($E$4:$E$32,G5)</f>
+        <v>3300000</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J8" si="1">SMALL($E$4:$E$32,G5)</f>
+        <v>369000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -744,10 +795,16 @@
       <c r="G6" s="5">
         <v>3</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="J6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="4">
+        <f t="shared" si="0"/>
+        <v>3200000</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2019</v>
       </c>
@@ -767,10 +824,16 @@
       <c r="G7" s="5">
         <v>4</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="4">
+        <f t="shared" si="0"/>
+        <v>2500000</v>
+      </c>
+      <c r="J7" s="2">
+        <f>SMALL($E$4:$E$32,G7)</f>
+        <v>401000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2019</v>
       </c>
@@ -790,10 +853,16 @@
       <c r="G8" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="4">
+        <f t="shared" si="0"/>
+        <v>1800000</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="1"/>
+        <v>422000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -812,7 +881,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2019</v>
       </c>
@@ -831,7 +900,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2019</v>
       </c>
@@ -850,7 +919,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -875,7 +944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2019</v>
       </c>
@@ -895,8 +964,22 @@
       <c r="G13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="6">
+        <f>_xlfn.MAXIFS(E4:E32,D4:D32,"Pop")</f>
+        <v>4500000</v>
+      </c>
+      <c r="I13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="6">
+        <f>_xlfn.MINIFS(E4:E32,D4:D32,"Hip hop")</f>
+        <v>374000</v>
+      </c>
+      <c r="K13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -916,8 +999,22 @@
       <c r="G14" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="6" cm="1">
+        <f t="array" ref="H14">LARGE(IF($D$4:$D$32="Pop",$E$4:$E$32),G14)</f>
+        <v>3200000</v>
+      </c>
+      <c r="I14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="6" cm="1">
+        <f t="array" ref="J14">SMALL(IF($D$4:$D$32="Hip hop",$E$4:$E$32),G14)</f>
+        <v>464000</v>
+      </c>
+      <c r="K14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2018</v>
       </c>
@@ -937,8 +1034,16 @@
       <c r="G15" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="6" cm="1">
+        <f t="array" ref="H15">LARGE(IF($D$4:$D$32="Pop",$E$4:$E$32),G15)</f>
+        <v>1800000</v>
+      </c>
+      <c r="J15" s="6" cm="1">
+        <f t="array" ref="J15">SMALL(IF($D$4:$D$32="Hip hop",$E$4:$E$32),G15)</f>
+        <v>493000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2018</v>
       </c>
@@ -958,8 +1063,16 @@
       <c r="G16" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="6" cm="1">
+        <f t="array" ref="H16">LARGE(IF($D$4:$D$32="Pop",$E$4:$E$32),G16)</f>
+        <v>1400000</v>
+      </c>
+      <c r="J16" s="6" cm="1">
+        <f t="array" ref="J16">SMALL(IF($D$4:$D$32="Hip hop",$E$4:$E$32),G16)</f>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -979,8 +1092,16 @@
       <c r="G17" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="6" cm="1">
+        <f t="array" ref="H17">LARGE(IF($D$4:$D$32="Pop",$E$4:$E$32),G17)</f>
+        <v>1200000</v>
+      </c>
+      <c r="J17" s="6" cm="1">
+        <f t="array" ref="J17">SMALL(IF($D$4:$D$32="Hip hop",$E$4:$E$32),G17)</f>
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2018</v>
       </c>
@@ -998,7 +1119,7 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -1016,7 +1137,7 @@
       </c>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -1034,7 +1155,7 @@
       </c>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1052,7 +1173,7 @@
       </c>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2018</v>
       </c>
@@ -1070,7 +1191,7 @@
       </c>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2018</v>
       </c>
@@ -1088,7 +1209,7 @@
       </c>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2017</v>
       </c>
@@ -1106,7 +1227,7 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2017</v>
       </c>
@@ -1124,7 +1245,7 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2017</v>
       </c>
@@ -1142,7 +1263,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2017</v>
       </c>
@@ -1160,7 +1281,7 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2017</v>
       </c>
@@ -1178,7 +1299,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2017</v>
       </c>
@@ -1196,7 +1317,7 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2017</v>
       </c>
@@ -1214,7 +1335,7 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2017</v>
       </c>
@@ -1232,7 +1353,7 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2017</v>
       </c>
